--- a/PetriNetCode/InputFiles/DC_Insp_Metal_Det_Ind.xlsx
+++ b/PetriNetCode/InputFiles/DC_Insp_Metal_Det_Ind.xlsx
@@ -3103,7 +3103,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="A1:E6"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3180,19 +3180,19 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.9</v>
+        <v>0.99971383761433497</v>
       </c>
       <c r="B6">
-        <v>0.85</v>
+        <v>0.99444703112267396</v>
       </c>
       <c r="C6">
-        <v>0.8</v>
+        <v>0.98614722460415705</v>
       </c>
       <c r="D6">
-        <v>0.7</v>
+        <v>0.98598439167554397</v>
       </c>
       <c r="E6">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3205,7 +3205,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E6"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3282,19 +3282,19 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.9</v>
+        <v>0.99894212189579001</v>
       </c>
       <c r="B6">
-        <v>0.85</v>
+        <v>0.99836042227000799</v>
       </c>
       <c r="C6">
-        <v>0.8</v>
+        <v>0.99781870633105596</v>
       </c>
       <c r="D6">
-        <v>0.7</v>
+        <v>0.99691087850514704</v>
       </c>
       <c r="E6">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3307,7 +3307,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E6"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3384,19 +3384,19 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.9</v>
+        <v>0.99955198671225098</v>
       </c>
       <c r="B6">
-        <v>0.85</v>
+        <v>0.99953271938350396</v>
       </c>
       <c r="C6">
-        <v>0.8</v>
+        <v>0.99964856034592597</v>
       </c>
       <c r="D6">
-        <v>0.7</v>
+        <v>0.99939647630314199</v>
       </c>
       <c r="E6">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3409,7 +3409,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E6"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3486,19 +3486,19 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.9</v>
+        <v>0.99990610587418505</v>
       </c>
       <c r="B6">
-        <v>0.85</v>
+        <v>0.99979946892058402</v>
       </c>
       <c r="C6">
-        <v>0.8</v>
+        <v>0.99993788466807398</v>
       </c>
       <c r="D6">
-        <v>0.7</v>
+        <v>0.99968432773668703</v>
       </c>
       <c r="E6">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
